--- a/data/trans_bre/P29_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P29_R-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-36.10916269665231</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-26.52305262874072</v>
+        <v>-26.52305262874071</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.5855143982958252</v>
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-41.64031231445087</v>
+        <v>-42.10838377073758</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-40.35567089455418</v>
+        <v>-40.75782999551434</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-40.91467029825191</v>
+        <v>-40.87072967806883</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-31.43512050167806</v>
+        <v>-31.02488255023956</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6373967691524086</v>
+        <v>-0.6429089902792149</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6428825080556819</v>
+        <v>-0.6452114152781887</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.6224696234698512</v>
+        <v>-0.6204999087402159</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.5247932943052795</v>
+        <v>-0.5224955512164891</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-31.824095314355</v>
+        <v>-32.01896835111411</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-30.90223999977395</v>
+        <v>-30.27438545351547</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-30.9921042347755</v>
+        <v>-30.46595010419382</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-21.24294319422338</v>
+        <v>-20.82503058783706</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.519986669415924</v>
+        <v>-0.5266376293889237</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.5170203984206363</v>
+        <v>-0.5167373731378525</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.5079109544769896</v>
+        <v>-0.4968709480116533</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.3918944408179859</v>
+        <v>-0.3954076445711739</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-25.14427129402096</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-25.40516799645377</v>
+        <v>-25.40516799645375</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.5229278495790397</v>
@@ -749,7 +749,7 @@
         <v>-0.4466935343078098</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.4351354502654352</v>
+        <v>-0.435135450265435</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-36.16190330461121</v>
+        <v>-36.47198426438828</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-33.89072238652749</v>
+        <v>-34.05751353728472</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-29.12733736092014</v>
+        <v>-29.78731917673685</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-29.82461180079292</v>
+        <v>-29.48762774134961</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.577446195130249</v>
+        <v>-0.5795464863428691</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5614471832193555</v>
+        <v>-0.5601263467087496</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5035370401938078</v>
+        <v>-0.5076556157870648</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4903550711950616</v>
+        <v>-0.485354120095209</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-26.97746985908888</v>
+        <v>-27.59712856986418</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-25.34448368732713</v>
+        <v>-25.36213868401162</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-20.42437060364592</v>
+        <v>-20.67145934467504</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-21.06226813101179</v>
+        <v>-20.91979914069159</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.4633375311658092</v>
+        <v>-0.469039417446018</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.4459977826222508</v>
+        <v>-0.4429647381779576</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.3792483255071348</v>
+        <v>-0.3836804016925345</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.3721036458366113</v>
+        <v>-0.3760313807999558</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-34.75350136958313</v>
+        <v>-34.47975606495245</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-38.51559403871918</v>
+        <v>-38.98259209627462</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-31.24245373994946</v>
+        <v>-30.96949780068896</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-23.72755360620882</v>
+        <v>-23.85643356320274</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6729451359773927</v>
+        <v>-0.6735871211226275</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.6179874209806767</v>
+        <v>-0.6177403694452948</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.5318389377698231</v>
+        <v>-0.5283568017542086</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4162948832966267</v>
+        <v>-0.4146580576027747</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-24.57935797342581</v>
+        <v>-24.26748685650567</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-28.4010278133344</v>
+        <v>-28.79036954949641</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-21.23702367259613</v>
+        <v>-21.39045955144556</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-13.43025577286799</v>
+        <v>-13.88572193874888</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.5393187753397432</v>
+        <v>-0.5303546346405651</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.4888213960394763</v>
+        <v>-0.4942543233782738</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.3912044194157205</v>
+        <v>-0.3924012432942958</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.2639198495468796</v>
+        <v>-0.2653753359527022</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-31.20085425780991</v>
+        <v>-31.37673943591464</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-28.35610874932361</v>
+        <v>-28.24302772467299</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-26.55620801334339</v>
+        <v>-26.57116378242009</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-22.44753083198985</v>
+        <v>-22.59588691883095</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5340148287275527</v>
+        <v>-0.5370011414878173</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.465668419813573</v>
+        <v>-0.4607884719449493</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4195089663357178</v>
+        <v>-0.4198700774767449</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3719233990666002</v>
+        <v>-0.3777553470611394</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-22.47276091497013</v>
+        <v>-22.86678940523436</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-19.57142222993125</v>
+        <v>-19.26327872254866</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-17.93666992557063</v>
+        <v>-18.0023153010525</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-13.8565881700237</v>
+        <v>-14.00072034582712</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.4147673255491216</v>
+        <v>-0.4202874971989756</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.3440313634503669</v>
+        <v>-0.3407118649762163</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.3011994277306884</v>
+        <v>-0.3001453595290354</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2524624881572741</v>
+        <v>-0.2514445964363556</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-33.19877691761889</v>
+        <v>-33.06969221613529</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-32.29867084710823</v>
+        <v>-32.40216458087338</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-28.86666806641669</v>
+        <v>-28.9434469816403</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-24.38774323758095</v>
+        <v>-24.13645311859189</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5672390326693914</v>
+        <v>-0.5700088779535362</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.5314863871461204</v>
+        <v>-0.5325195856279253</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.4799230969274752</v>
+        <v>-0.4781318754070236</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.4176201532372982</v>
+        <v>-0.4125933689850124</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-28.4798734399174</v>
+        <v>-28.56951683426512</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-27.54892174118817</v>
+        <v>-27.74811077423707</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-24.28623621491415</v>
+        <v>-24.28743023981881</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-19.60061525607622</v>
+        <v>-19.33600450908411</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.5073726280004411</v>
+        <v>-0.5091071941970714</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.4705254516366764</v>
+        <v>-0.4733279118373967</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.4176465058996682</v>
+        <v>-0.4143022378782656</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.351715665707074</v>
+        <v>-0.3469236022617014</v>
       </c>
     </row>
     <row r="19">
